--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Efna5-Ephb6.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Efna5-Ephb6.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -89,6 +89,9 @@
   </si>
   <si>
     <t>Ephb6</t>
+  </si>
+  <si>
+    <t>Resolving-Mac</t>
   </si>
 </sst>
 </file>
@@ -446,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,7 +528,7 @@
         <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E2">
         <v>2</v>
@@ -534,46 +537,46 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.4223226666666666</v>
+        <v>0.3227736666666667</v>
       </c>
       <c r="H2">
-        <v>1.266968</v>
+        <v>0.968321</v>
       </c>
       <c r="I2">
-        <v>0.1676547342089268</v>
+        <v>0.1416094457286952</v>
       </c>
       <c r="J2">
-        <v>0.1676547342089269</v>
+        <v>0.1416094457286952</v>
       </c>
       <c r="K2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>0.7341896666666666</v>
+        <v>0.04731666666666667</v>
       </c>
       <c r="N2">
-        <v>2.202569</v>
+        <v>0.14195</v>
       </c>
       <c r="O2">
-        <v>0.4912907638668469</v>
+        <v>0.01864859375546025</v>
       </c>
       <c r="P2">
-        <v>0.4912907638668469</v>
+        <v>0.01864859375546025</v>
       </c>
       <c r="Q2">
-        <v>0.3100649378657777</v>
+        <v>0.01527257399444444</v>
       </c>
       <c r="R2">
-        <v>2.790584440792</v>
+        <v>0.13745316595</v>
       </c>
       <c r="S2">
-        <v>0.08236722243539686</v>
+        <v>0.002640817025330331</v>
       </c>
       <c r="T2">
-        <v>0.08236722243539688</v>
+        <v>0.002640817025330331</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,7 +590,7 @@
         <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E3">
         <v>2</v>
@@ -596,16 +599,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>0.4223226666666666</v>
+        <v>0.3227736666666667</v>
       </c>
       <c r="H3">
-        <v>1.266968</v>
+        <v>0.968321</v>
       </c>
       <c r="I3">
-        <v>0.1676547342089268</v>
+        <v>0.1416094457286952</v>
       </c>
       <c r="J3">
-        <v>0.1676547342089269</v>
+        <v>0.1416094457286952</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -614,33 +617,33 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.7602199999999999</v>
+        <v>0.7341896666666666</v>
       </c>
       <c r="N3">
-        <v>2.28066</v>
+        <v>2.202569</v>
       </c>
       <c r="O3">
-        <v>0.5087092361331531</v>
+        <v>0.289361144764849</v>
       </c>
       <c r="P3">
-        <v>0.5087092361331531</v>
+        <v>0.289361144764849</v>
       </c>
       <c r="Q3">
-        <v>0.3210581376533332</v>
+        <v>0.2369770907387778</v>
       </c>
       <c r="R3">
-        <v>2.889523238879999</v>
+        <v>2.132793816649</v>
       </c>
       <c r="S3">
-        <v>0.08528751177352999</v>
+        <v>0.040976271325571</v>
       </c>
       <c r="T3">
-        <v>0.08528751177353</v>
+        <v>0.040976271325571</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
         <v>23</v>
@@ -649,25 +652,25 @@
         <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>1.874986333333333</v>
+        <v>0.3227736666666667</v>
       </c>
       <c r="H4">
-        <v>5.624959</v>
+        <v>0.968321</v>
       </c>
       <c r="I4">
-        <v>0.7443368783435028</v>
+        <v>0.1416094457286952</v>
       </c>
       <c r="J4">
-        <v>0.7443368783435029</v>
+        <v>0.1416094457286952</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,33 +679,33 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.7341896666666666</v>
+        <v>1.683518666666667</v>
       </c>
       <c r="N4">
-        <v>2.202569</v>
+        <v>5.050556</v>
       </c>
       <c r="O4">
-        <v>0.4912907638668469</v>
+        <v>0.663513681459685</v>
       </c>
       <c r="P4">
-        <v>0.4912907638668469</v>
+        <v>0.663513681459685</v>
       </c>
       <c r="Q4">
-        <v>1.376595591074556</v>
+        <v>0.5433954929417778</v>
       </c>
       <c r="R4">
-        <v>12.389360319671</v>
+        <v>4.890559436476</v>
       </c>
       <c r="S4">
-        <v>0.3656858335356438</v>
+        <v>0.09395980466491199</v>
       </c>
       <c r="T4">
-        <v>0.3656858335356438</v>
+        <v>0.09395980466491199</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
         <v>23</v>
@@ -711,25 +714,25 @@
         <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>1.874986333333333</v>
+        <v>0.3227736666666667</v>
       </c>
       <c r="H5">
-        <v>5.624959</v>
+        <v>0.968321</v>
       </c>
       <c r="I5">
-        <v>0.7443368783435028</v>
+        <v>0.1416094457286952</v>
       </c>
       <c r="J5">
-        <v>0.7443368783435029</v>
+        <v>0.1416094457286952</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,33 +741,33 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.7602199999999999</v>
+        <v>0.072253</v>
       </c>
       <c r="N5">
-        <v>2.28066</v>
+        <v>0.216759</v>
       </c>
       <c r="O5">
-        <v>0.5087092361331531</v>
+        <v>0.02847658002000569</v>
       </c>
       <c r="P5">
-        <v>0.5087092361331531</v>
+        <v>0.02847658002000569</v>
       </c>
       <c r="Q5">
-        <v>1.425402110326667</v>
+        <v>0.02332136573766667</v>
       </c>
       <c r="R5">
-        <v>12.82861899294</v>
+        <v>0.209892291639</v>
       </c>
       <c r="S5">
-        <v>0.378651044807859</v>
+        <v>0.00403255271288184</v>
       </c>
       <c r="T5">
-        <v>0.3786510448078591</v>
+        <v>0.004032552712881841</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
         <v>23</v>
@@ -773,7 +776,7 @@
         <v>24</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -782,51 +785,51 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.2216933333333333</v>
+        <v>1.874986333333333</v>
       </c>
       <c r="H6">
-        <v>0.66508</v>
+        <v>5.624959</v>
       </c>
       <c r="I6">
-        <v>0.08800838744757017</v>
+        <v>0.8226066833587575</v>
       </c>
       <c r="J6">
-        <v>0.08800838744757018</v>
+        <v>0.8226066833587576</v>
       </c>
       <c r="K6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M6">
-        <v>0.7341896666666666</v>
+        <v>0.04731666666666667</v>
       </c>
       <c r="N6">
-        <v>2.202569</v>
+        <v>0.14195</v>
       </c>
       <c r="O6">
-        <v>0.4912907638668469</v>
+        <v>0.01864859375546025</v>
       </c>
       <c r="P6">
-        <v>0.4912907638668469</v>
+        <v>0.01864859375546025</v>
       </c>
       <c r="Q6">
-        <v>0.1627649545022222</v>
+        <v>0.0887181033388889</v>
       </c>
       <c r="R6">
-        <v>1.46488459052</v>
+        <v>0.79846293005</v>
       </c>
       <c r="S6">
-        <v>0.04323770789580617</v>
+        <v>0.01534045785848399</v>
       </c>
       <c r="T6">
-        <v>0.04323770789580617</v>
+        <v>0.01534045785848399</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
         <v>23</v>
@@ -835,55 +838,427 @@
         <v>24</v>
       </c>
       <c r="D7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>1.874986333333333</v>
+      </c>
+      <c r="H7">
+        <v>5.624959</v>
+      </c>
+      <c r="I7">
+        <v>0.8226066833587575</v>
+      </c>
+      <c r="J7">
+        <v>0.8226066833587576</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>0.7341896666666666</v>
+      </c>
+      <c r="N7">
+        <v>2.202569</v>
+      </c>
+      <c r="O7">
+        <v>0.289361144764849</v>
+      </c>
+      <c r="P7">
+        <v>0.289361144764849</v>
+      </c>
+      <c r="Q7">
+        <v>1.376595591074556</v>
+      </c>
+      <c r="R7">
+        <v>12.389360319671</v>
+      </c>
+      <c r="S7">
+        <v>0.2380304115879058</v>
+      </c>
+      <c r="T7">
+        <v>0.2380304115879058</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" t="s">
         <v>22</v>
       </c>
-      <c r="E7">
-        <v>3</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7">
-        <v>0.2216933333333333</v>
-      </c>
-      <c r="H7">
-        <v>0.66508</v>
-      </c>
-      <c r="I7">
-        <v>0.08800838744757017</v>
-      </c>
-      <c r="J7">
-        <v>0.08800838744757018</v>
-      </c>
-      <c r="K7">
-        <v>3</v>
-      </c>
-      <c r="L7">
-        <v>1</v>
-      </c>
-      <c r="M7">
-        <v>0.7602199999999999</v>
-      </c>
-      <c r="N7">
-        <v>2.28066</v>
-      </c>
-      <c r="O7">
-        <v>0.5087092361331531</v>
-      </c>
-      <c r="P7">
-        <v>0.5087092361331531</v>
-      </c>
-      <c r="Q7">
-        <v>0.1685357058666666</v>
-      </c>
-      <c r="R7">
-        <v>1.5168213528</v>
-      </c>
-      <c r="S7">
-        <v>0.044770679551764</v>
-      </c>
-      <c r="T7">
-        <v>0.04477067955176401</v>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>1.874986333333333</v>
+      </c>
+      <c r="H8">
+        <v>5.624959</v>
+      </c>
+      <c r="I8">
+        <v>0.8226066833587575</v>
+      </c>
+      <c r="J8">
+        <v>0.8226066833587576</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>1.683518666666667</v>
+      </c>
+      <c r="N8">
+        <v>5.050556</v>
+      </c>
+      <c r="O8">
+        <v>0.663513681459685</v>
+      </c>
+      <c r="P8">
+        <v>0.663513681459685</v>
+      </c>
+      <c r="Q8">
+        <v>3.156574491911556</v>
+      </c>
+      <c r="R8">
+        <v>28.409170427204</v>
+      </c>
+      <c r="S8">
+        <v>0.5458107888687106</v>
+      </c>
+      <c r="T8">
+        <v>0.5458107888687107</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
+        <v>25</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>1.874986333333333</v>
+      </c>
+      <c r="H9">
+        <v>5.624959</v>
+      </c>
+      <c r="I9">
+        <v>0.8226066833587575</v>
+      </c>
+      <c r="J9">
+        <v>0.8226066833587576</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>0.072253</v>
+      </c>
+      <c r="N9">
+        <v>0.216759</v>
+      </c>
+      <c r="O9">
+        <v>0.02847658002000569</v>
+      </c>
+      <c r="P9">
+        <v>0.02847658002000569</v>
+      </c>
+      <c r="Q9">
+        <v>0.1354733875423333</v>
+      </c>
+      <c r="R9">
+        <v>1.219260487881</v>
+      </c>
+      <c r="S9">
+        <v>0.02342502504365714</v>
+      </c>
+      <c r="T9">
+        <v>0.02342502504365715</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10">
+        <v>2</v>
+      </c>
+      <c r="F10">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G10">
+        <v>0.081563</v>
+      </c>
+      <c r="H10">
+        <v>0.244689</v>
+      </c>
+      <c r="I10">
+        <v>0.03578387091254728</v>
+      </c>
+      <c r="J10">
+        <v>0.03578387091254728</v>
+      </c>
+      <c r="K10">
+        <v>1</v>
+      </c>
+      <c r="L10">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M10">
+        <v>0.04731666666666667</v>
+      </c>
+      <c r="N10">
+        <v>0.14195</v>
+      </c>
+      <c r="O10">
+        <v>0.01864859375546025</v>
+      </c>
+      <c r="P10">
+        <v>0.01864859375546025</v>
+      </c>
+      <c r="Q10">
+        <v>0.003859289283333333</v>
+      </c>
+      <c r="R10">
+        <v>0.03473360355</v>
+      </c>
+      <c r="S10">
+        <v>0.0006673188716459248</v>
+      </c>
+      <c r="T10">
+        <v>0.0006673188716459248</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11">
+        <v>2</v>
+      </c>
+      <c r="F11">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G11">
+        <v>0.081563</v>
+      </c>
+      <c r="H11">
+        <v>0.244689</v>
+      </c>
+      <c r="I11">
+        <v>0.03578387091254728</v>
+      </c>
+      <c r="J11">
+        <v>0.03578387091254728</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>0.7341896666666666</v>
+      </c>
+      <c r="N11">
+        <v>2.202569</v>
+      </c>
+      <c r="O11">
+        <v>0.289361144764849</v>
+      </c>
+      <c r="P11">
+        <v>0.289361144764849</v>
+      </c>
+      <c r="Q11">
+        <v>0.05988271178233333</v>
+      </c>
+      <c r="R11">
+        <v>0.538944406041</v>
+      </c>
+      <c r="S11">
+        <v>0.01035446185137226</v>
+      </c>
+      <c r="T11">
+        <v>0.01035446185137226</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12">
+        <v>2</v>
+      </c>
+      <c r="F12">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G12">
+        <v>0.081563</v>
+      </c>
+      <c r="H12">
+        <v>0.244689</v>
+      </c>
+      <c r="I12">
+        <v>0.03578387091254728</v>
+      </c>
+      <c r="J12">
+        <v>0.03578387091254728</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>1.683518666666667</v>
+      </c>
+      <c r="N12">
+        <v>5.050556</v>
+      </c>
+      <c r="O12">
+        <v>0.663513681459685</v>
+      </c>
+      <c r="P12">
+        <v>0.663513681459685</v>
+      </c>
+      <c r="Q12">
+        <v>0.1373128330093333</v>
+      </c>
+      <c r="R12">
+        <v>1.235815497084</v>
+      </c>
+      <c r="S12">
+        <v>0.02374308792606238</v>
+      </c>
+      <c r="T12">
+        <v>0.02374308792606238</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" t="s">
+        <v>25</v>
+      </c>
+      <c r="E13">
+        <v>2</v>
+      </c>
+      <c r="F13">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G13">
+        <v>0.081563</v>
+      </c>
+      <c r="H13">
+        <v>0.244689</v>
+      </c>
+      <c r="I13">
+        <v>0.03578387091254728</v>
+      </c>
+      <c r="J13">
+        <v>0.03578387091254728</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>0.072253</v>
+      </c>
+      <c r="N13">
+        <v>0.216759</v>
+      </c>
+      <c r="O13">
+        <v>0.02847658002000569</v>
+      </c>
+      <c r="P13">
+        <v>0.02847658002000569</v>
+      </c>
+      <c r="Q13">
+        <v>0.005893171439</v>
+      </c>
+      <c r="R13">
+        <v>0.053038542951</v>
+      </c>
+      <c r="S13">
+        <v>0.001019002263466707</v>
+      </c>
+      <c r="T13">
+        <v>0.001019002263466707</v>
       </c>
     </row>
   </sheetData>
